--- a/Assets/DataTables~/_constantData정책.xlsx
+++ b/Assets/DataTables~/_constantData정책.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_work\ProjectDF\Assets\DataTables~\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5FF478-49E7-4C77-BE64-6C8681C0DF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A669D6-F4AE-4570-9DC4-715D89AD6782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1695" windowWidth="29040" windowHeight="15840" xr2:uid="{B05E0906-D97A-499C-8DF5-413029240717}"/>
+    <workbookView xWindow="-22800" yWindow="2220" windowWidth="21600" windowHeight="12735" xr2:uid="{B05E0906-D97A-499C-8DF5-413029240717}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>레벨업 골드 비용 증가</t>
   </si>
@@ -132,6 +132,46 @@
   </si>
   <si>
     <t>7.1 변경. 1% -&gt; 2.5%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>240배…*</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcde</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcdefghijkl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 몬스터 체력. 1lv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>461스테이지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200스테이지 몹체력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30스테이지 몹체력 배율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>790배</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25스테이지 몹체력 배율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>던전 레벨 당 몬스터 체력 배율</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -193,7 +233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -210,6 +250,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -527,16 +570,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD33CC80-7C2C-423E-BBDA-6D7066264034}">
-  <dimension ref="B2:I14"/>
+  <dimension ref="B2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="105.375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -723,6 +766,64 @@
       <c r="C14" s="1">
         <v>0.1</v>
       </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14">
+        <f>500*((1+0.18)^461-1)/(0.18)</f>
+        <v>3.8133166294683822E+36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="6">
+        <v>7.77E+20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <f>500*((1+0.18)^200-1)/(0.18)</f>
+        <v>6.6084401399116352E+17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="3">
+        <v>790</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <f>((1+0.18)^30-1)/(0.18)</f>
+        <v>790.94799132181902</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17">
+        <f>((1+0.18)^25-1)/(0.18)</f>
+        <v>342.60348554479407</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/DataTables~/_constantData정책.xlsx
+++ b/Assets/DataTables~/_constantData정책.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_work\ProjectDF\Assets\DataTables~\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A669D6-F4AE-4570-9DC4-715D89AD6782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A410CBE6-F8E9-43C0-BC5D-EA464FDAF7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22800" yWindow="2220" windowWidth="21600" windowHeight="12735" xr2:uid="{B05E0906-D97A-499C-8DF5-413029240717}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B05E0906-D97A-499C-8DF5-413029240717}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,30 +139,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>abcde</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcdefghijkl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>던전 몬스터 체력. 1lv</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>461스테이지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>200스테이지 몹체력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30스테이지 몹체력 배율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>790배</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -172,6 +152,26 @@
   </si>
   <si>
     <t>던전 레벨 당 몬스터 체력 배율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100강화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300강화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20강화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcd</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +573,7 @@
   <dimension ref="B2:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -758,6 +758,10 @@
       <c r="C13" s="1">
         <v>1</v>
       </c>
+      <c r="F13">
+        <f>200*30</f>
+        <v>6000</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -767,19 +771,22 @@
         <v>0.1</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F14">
-        <f>500*((1+0.18)^461-1)/(0.18)</f>
-        <v>3.8133166294683822E+36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
+        <v>300</v>
+      </c>
+      <c r="G14">
+        <f>F13*((1+$C$4)^F14-1)/($C$4)</f>
+        <v>798340036293926</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="6">
         <v>7.77E+20</v>
@@ -791,38 +798,40 @@
         <v>31</v>
       </c>
       <c r="F15">
-        <f>500*((1+0.18)^200-1)/(0.18)</f>
-        <v>6.6084401399116352E+17</v>
-      </c>
-      <c r="G15" t="s">
-        <v>27</v>
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <f>F14*((1+$C$4)^F15-1)/($C$4)</f>
+        <v>8245354.7112798626</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3">
         <v>790</v>
       </c>
       <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
         <v>33</v>
       </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
       <c r="F16">
-        <f>((1+0.18)^30-1)/(0.18)</f>
-        <v>790.94799132181902</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <f>((1+$C$4)^F16-1)/($C$4)</f>
+        <v>45.761964298116332</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17">
-        <f>((1+0.18)^25-1)/(0.18)</f>
-        <v>342.60348554479407</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTables~/_constantData정책.xlsx
+++ b/Assets/DataTables~/_constantData정책.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_work\ProjectDF\Assets\DataTables~\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A410CBE6-F8E9-43C0-BC5D-EA464FDAF7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E516CB-19BB-4FC8-B0FE-0FF94EE5A430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B05E0906-D97A-499C-8DF5-413029240717}"/>
   </bookViews>
@@ -179,9 +179,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="0.00.E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -233,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -253,6 +254,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD33CC80-7C2C-423E-BBDA-6D7066264034}">
-  <dimension ref="B2:I17"/>
+  <dimension ref="B2:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -582,6 +586,7 @@
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="105.375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
@@ -776,9 +781,9 @@
       <c r="F14">
         <v>300</v>
       </c>
-      <c r="G14">
-        <f>F13*((1+$C$4)^F14-1)/($C$4)</f>
-        <v>798340036293926</v>
+      <c r="G14" s="7">
+        <f>$F$13*((1+$C$4)^F14-1)/($C$4)*94</f>
+        <v>7.504396341162904E+16</v>
       </c>
       <c r="H14" t="s">
         <v>35</v>
@@ -800,9 +805,9 @@
       <c r="F15">
         <v>100</v>
       </c>
-      <c r="G15">
-        <f>F14*((1+$C$4)^F15-1)/($C$4)</f>
-        <v>8245354.7112798626</v>
+      <c r="G15" s="7">
+        <f>$F$13*((1+$C$4)^F15-1)/($C$4)*94</f>
+        <v>15501266857.206142</v>
       </c>
       <c r="H15" t="s">
         <v>34</v>
@@ -825,13 +830,332 @@
         <v>20</v>
       </c>
       <c r="G16">
-        <f>((1+$C$4)^F16-1)/($C$4)</f>
-        <v>45.761964298116332</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+        <f>(1+$C$4)^F16</f>
+        <v>4.6609571438493065</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19" s="7">
+        <f>$F$13*((1+$C$4)^F19-1)/($C$4)*5</f>
+        <v>824535471.12798631</v>
+      </c>
+      <c r="H19" s="6">
+        <v>777000000</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>120</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" ref="G20:G38" si="0">$F$13*((1+$C$4)^F20-1)/($C$4)*5</f>
+        <v>3844497353.440084</v>
+      </c>
+      <c r="H20" s="6">
+        <f>H19*$G$16</f>
+        <v>3621563700.7709112</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>140</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="0"/>
+        <v>17920410262.955261</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" ref="H21:H38" si="1">H20*$G$16</f>
+        <v>16879953203.013512</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>160</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="0"/>
+        <v>83527637094.760712</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="1"/>
+        <v>78676738469.427811</v>
+      </c>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>180</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="0"/>
+        <v>389320109684.60608</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="1"/>
+        <v>366708906223.84308</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>200</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="0"/>
+        <v>1814605719337.5898</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="1"/>
+        <v>1709214496177.1868</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>220</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="0"/>
+        <v>8457800863675.2773</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="1"/>
+        <v>7966575516327.8516</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>240</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="0"/>
+        <v>39421448729661.055</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="1"/>
+        <v>37131867064843.273</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>260</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="0"/>
+        <v>183741684450261.81</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="1"/>
+        <v>173070041060344.03</v>
+      </c>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>280</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="0"/>
+        <v>856412118134211.75</v>
+      </c>
+      <c r="H28" s="6">
+        <f t="shared" si="1"/>
+        <v>806672044266503.38</v>
+      </c>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>300</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="0"/>
+        <v>3991700181469630</v>
+      </c>
+      <c r="H29" s="6">
+        <f t="shared" si="1"/>
+        <v>3759863827467483</v>
+      </c>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>320</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="0"/>
+        <v>1.86051434782983E+16</v>
+      </c>
+      <c r="H30" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7524564166535162E+16</v>
+      </c>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>340</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="0"/>
+        <v>8.6717776408888672E+16</v>
+      </c>
+      <c r="H31" s="6">
+        <f t="shared" si="1"/>
+        <v>8.1681242544857632E+16</v>
+      </c>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>14</v>
+      </c>
+      <c r="F32">
+        <v>360</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0418783945310944E+17</v>
+      </c>
+      <c r="H32" s="6">
+        <f t="shared" si="1"/>
+        <v>3.8071277095794208E+17</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>15</v>
+      </c>
+      <c r="F33">
+        <v>380</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8839021977573596E+18</v>
+      </c>
+      <c r="H33" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7744859095510848E+18</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>16</v>
+      </c>
+      <c r="F34">
+        <v>400</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="0"/>
+        <v>8.7807874069519503E+18</v>
+      </c>
+      <c r="H34" s="6">
+        <f t="shared" si="1"/>
+        <v>8.2708027767820626E+18</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>17</v>
+      </c>
+      <c r="F35">
+        <v>420</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0926873793056096E+19</v>
+      </c>
+      <c r="H35" s="6">
+        <f t="shared" si="1"/>
+        <v>3.8549857287811039E+19</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <v>440</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9075840478116512E+20</v>
+      </c>
+      <c r="H36" s="6">
+        <f t="shared" si="1"/>
+        <v>1.7967923271999413E+20</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>19</v>
+      </c>
+      <c r="F37">
+        <v>460</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="0"/>
+        <v>8.8911674951407056E+20</v>
+      </c>
+      <c r="H37" s="6">
+        <f t="shared" si="1"/>
+        <v>8.3747720334761866E+20</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <v>480</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="0"/>
+        <v>4.1441350653636835E+21</v>
+      </c>
+      <c r="H38" s="6">
+        <f t="shared" si="1"/>
+        <v>3.9034453537540213E+21</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataTables~/_constantData정책.xlsx
+++ b/Assets/DataTables~/_constantData정책.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_work\ProjectDF\Assets\DataTables~\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E516CB-19BB-4FC8-B0FE-0FF94EE5A430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A80F51-C825-424A-9714-42F3135D4819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B05E0906-D97A-499C-8DF5-413029240717}"/>
   </bookViews>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD33CC80-7C2C-423E-BBDA-6D7066264034}">
   <dimension ref="B2:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -833,6 +833,9 @@
         <f>(1+$C$4)^F16</f>
         <v>4.6609571438493065</v>
       </c>
+      <c r="H16">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="17" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
@@ -866,8 +869,8 @@
         <v>3844497353.440084</v>
       </c>
       <c r="H20" s="6">
-        <f>H19*$G$16</f>
-        <v>3621563700.7709112</v>
+        <f>H19*$H$16</f>
+        <v>4273500000</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.3">
@@ -882,8 +885,8 @@
         <v>17920410262.955261</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" ref="H21:H38" si="1">H20*$G$16</f>
-        <v>16879953203.013512</v>
+        <f t="shared" ref="H21:H38" si="1">H20*$H$16</f>
+        <v>23504250000</v>
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.3">
@@ -899,7 +902,7 @@
       </c>
       <c r="H22" s="6">
         <f t="shared" si="1"/>
-        <v>78676738469.427811</v>
+        <v>129273375000</v>
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.3">
@@ -915,7 +918,7 @@
       </c>
       <c r="H23" s="6">
         <f t="shared" si="1"/>
-        <v>366708906223.84308</v>
+        <v>711003562500</v>
       </c>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.3">
@@ -931,7 +934,7 @@
       </c>
       <c r="H24" s="6">
         <f t="shared" si="1"/>
-        <v>1709214496177.1868</v>
+        <v>3910519593750</v>
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.3">
@@ -947,7 +950,7 @@
       </c>
       <c r="H25" s="6">
         <f t="shared" si="1"/>
-        <v>7966575516327.8516</v>
+        <v>21507857765625</v>
       </c>
     </row>
     <row r="26" spans="5:8" x14ac:dyDescent="0.3">
@@ -963,7 +966,7 @@
       </c>
       <c r="H26" s="6">
         <f t="shared" si="1"/>
-        <v>37131867064843.273</v>
+        <v>118293217710937.5</v>
       </c>
     </row>
     <row r="27" spans="5:8" x14ac:dyDescent="0.3">
@@ -979,7 +982,7 @@
       </c>
       <c r="H27" s="6">
         <f t="shared" si="1"/>
-        <v>173070041060344.03</v>
+        <v>650612697410156.25</v>
       </c>
     </row>
     <row r="28" spans="5:8" x14ac:dyDescent="0.3">
@@ -995,7 +998,7 @@
       </c>
       <c r="H28" s="6">
         <f t="shared" si="1"/>
-        <v>806672044266503.38</v>
+        <v>3578369835755859.5</v>
       </c>
     </row>
     <row r="29" spans="5:8" x14ac:dyDescent="0.3">
@@ -1011,7 +1014,7 @@
       </c>
       <c r="H29" s="6">
         <f t="shared" si="1"/>
-        <v>3759863827467483</v>
+        <v>1.9681034096657228E+16</v>
       </c>
     </row>
     <row r="30" spans="5:8" x14ac:dyDescent="0.3">
@@ -1027,7 +1030,7 @@
       </c>
       <c r="H30" s="6">
         <f t="shared" si="1"/>
-        <v>1.7524564166535162E+16</v>
+        <v>1.0824568753161475E+17</v>
       </c>
     </row>
     <row r="31" spans="5:8" x14ac:dyDescent="0.3">
@@ -1043,7 +1046,7 @@
       </c>
       <c r="H31" s="6">
         <f t="shared" si="1"/>
-        <v>8.1681242544857632E+16</v>
+        <v>5.9535128142388109E+17</v>
       </c>
     </row>
     <row r="32" spans="5:8" x14ac:dyDescent="0.3">
@@ -1059,7 +1062,7 @@
       </c>
       <c r="H32" s="6">
         <f t="shared" si="1"/>
-        <v>3.8071277095794208E+17</v>
+        <v>3.2744320478313462E+18</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.3">
@@ -1075,7 +1078,7 @@
       </c>
       <c r="H33" s="6">
         <f t="shared" si="1"/>
-        <v>1.7744859095510848E+18</v>
+        <v>1.8009376263072403E+19</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.3">
@@ -1091,7 +1094,7 @@
       </c>
       <c r="H34" s="6">
         <f t="shared" si="1"/>
-        <v>8.2708027767820626E+18</v>
+        <v>9.9051569446898221E+19</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.3">
@@ -1107,7 +1110,7 @@
       </c>
       <c r="H35" s="6">
         <f t="shared" si="1"/>
-        <v>3.8549857287811039E+19</v>
+        <v>5.4478363195794024E+20</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.3">
@@ -1123,7 +1126,7 @@
       </c>
       <c r="H36" s="6">
         <f t="shared" si="1"/>
-        <v>1.7967923271999413E+20</v>
+        <v>2.9963099757686712E+21</v>
       </c>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.3">
@@ -1139,7 +1142,7 @@
       </c>
       <c r="H37" s="6">
         <f t="shared" si="1"/>
-        <v>8.3747720334761866E+20</v>
+        <v>1.6479704866727691E+22</v>
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.3">
@@ -1155,7 +1158,7 @@
       </c>
       <c r="H38" s="6">
         <f t="shared" si="1"/>
-        <v>3.9034453537540213E+21</v>
+        <v>9.0638376767002306E+22</v>
       </c>
     </row>
   </sheetData>
